--- a/team_specific_matrix/FDU_B.xlsx
+++ b/team_specific_matrix/FDU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1984732824427481</v>
+        <v>0.1869436201780415</v>
       </c>
       <c r="C2">
-        <v>0.5419847328244275</v>
+        <v>0.5548961424332344</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01908396946564886</v>
+        <v>0.02373887240356083</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1488549618320611</v>
+        <v>0.1335311572700297</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0916030534351145</v>
+        <v>0.1008902077151335</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6824324324324325</v>
+        <v>0.6954314720812182</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2635135135135135</v>
+        <v>0.2487309644670051</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5384615384615384</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4615384615384616</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06179775280898876</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01123595505617977</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0449438202247191</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2247191011235955</v>
+        <v>0.2297872340425532</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02247191011235955</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1573033707865168</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="R6">
-        <v>0.101123595505618</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="S6">
-        <v>0.3764044943820224</v>
+        <v>0.374468085106383</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1197604790419162</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02395209580838323</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05389221556886228</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08383233532934131</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01197604790419162</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1976047904191617</v>
+        <v>0.1797235023041475</v>
       </c>
       <c r="R7">
-        <v>0.07784431137724551</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="S7">
-        <v>0.4311377245508982</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1092436974789916</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008403361344537815</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07843137254901961</v>
+        <v>0.08842105263157894</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1120448179271709</v>
+        <v>0.1073684210526316</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04481792717086835</v>
+        <v>0.03368421052631579</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1708683473389356</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="R8">
-        <v>0.09243697478991597</v>
+        <v>0.09263157894736843</v>
       </c>
       <c r="S8">
-        <v>0.3837535014005602</v>
+        <v>0.3936842105263158</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07228915662650602</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01204819277108434</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="F9">
-        <v>0.06626506024096386</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1506024096385542</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02409638554216868</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1265060240963855</v>
+        <v>0.1203319502074689</v>
       </c>
       <c r="R9">
-        <v>0.1566265060240964</v>
+        <v>0.1286307053941909</v>
       </c>
       <c r="S9">
-        <v>0.3915662650602409</v>
+        <v>0.4398340248962656</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1148282097649186</v>
+        <v>0.1121558092679651</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01446654611211573</v>
+        <v>0.01611820013431833</v>
       </c>
       <c r="E10">
-        <v>0.0009041591320072332</v>
+        <v>0.000671591672263264</v>
       </c>
       <c r="F10">
-        <v>0.0759493670886076</v>
+        <v>0.06917394224311618</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1094032549728752</v>
+        <v>0.1175285426460712</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0216998191681736</v>
+        <v>0.02149093351242445</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2124773960216998</v>
+        <v>0.216252518468771</v>
       </c>
       <c r="R10">
-        <v>0.09945750452079566</v>
+        <v>0.09738079247817327</v>
       </c>
       <c r="S10">
-        <v>0.3508137432188065</v>
+        <v>0.3492276695768973</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1503759398496241</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09398496240601503</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="K11">
-        <v>0.2142857142857143</v>
+        <v>0.2090395480225989</v>
       </c>
       <c r="L11">
-        <v>0.5300751879699248</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0112781954887218</v>
+        <v>0.008474576271186441</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7253521126760564</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2042253521126761</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="L12">
-        <v>0.02112676056338028</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04929577464788732</v>
+        <v>0.05670103092783505</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02702702702702703</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.7297297297297297</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1891891891891892</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01129943502824859</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1355932203389831</v>
+        <v>0.1361702127659574</v>
       </c>
       <c r="I15">
-        <v>0.1073446327683616</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="J15">
-        <v>0.3389830508474576</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="K15">
-        <v>0.02259887005649718</v>
+        <v>0.03829787234042553</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005649717514124294</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05649717514124294</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3220338983050847</v>
+        <v>0.2936170212765957</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006666666666666667</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1066666666666667</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="I16">
-        <v>0.1066666666666667</v>
+        <v>0.1173469387755102</v>
       </c>
       <c r="J16">
-        <v>0.4533333333333333</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03333333333333333</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1733333333333333</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008021390374331552</v>
+        <v>0.005928853754940711</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2112299465240642</v>
+        <v>0.2055335968379447</v>
       </c>
       <c r="I17">
-        <v>0.07219251336898395</v>
+        <v>0.08893280632411067</v>
       </c>
       <c r="J17">
-        <v>0.4331550802139038</v>
+        <v>0.41699604743083</v>
       </c>
       <c r="K17">
-        <v>0.09090909090909091</v>
+        <v>0.09288537549407115</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01871657754010695</v>
+        <v>0.01778656126482214</v>
       </c>
       <c r="N17">
-        <v>0.00267379679144385</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="O17">
-        <v>0.05882352941176471</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1042780748663102</v>
+        <v>0.1027667984189723</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004975124378109453</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1791044776119403</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="I18">
-        <v>0.1044776119402985</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="J18">
-        <v>0.4676616915422885</v>
+        <v>0.45</v>
       </c>
       <c r="K18">
-        <v>0.04975124378109453</v>
+        <v>0.06538461538461539</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004975124378109453</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04975124378109453</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1393034825870647</v>
+        <v>0.1307692307692308</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009259259259259259</v>
+        <v>0.008241758241758242</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1898148148148148</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="I19">
-        <v>0.07777777777777778</v>
+        <v>0.08447802197802198</v>
       </c>
       <c r="J19">
-        <v>0.3962962962962963</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K19">
-        <v>0.1305555555555556</v>
+        <v>0.1236263736263736</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02407407407407407</v>
+        <v>0.02472527472527472</v>
       </c>
       <c r="N19">
-        <v>0.000925925925925926</v>
+        <v>0.001373626373626374</v>
       </c>
       <c r="O19">
-        <v>0.05555555555555555</v>
+        <v>0.0570054945054945</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1157407407407407</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/FDU_B.xlsx
+++ b/team_specific_matrix/FDU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1869436201780415</v>
+        <v>0.1825842696629214</v>
       </c>
       <c r="C2">
-        <v>0.5548961424332344</v>
+        <v>0.5589887640449438</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02373887240356083</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1335311572700297</v>
+        <v>0.1292134831460674</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1008902077151335</v>
+        <v>0.1067415730337079</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03553299492385787</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02030456852791878</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6954314720812182</v>
+        <v>0.6985645933014354</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2487309644670051</v>
+        <v>0.2488038277511962</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05106382978723404</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008510638297872341</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05106382978723404</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2297872340425532</v>
+        <v>0.2239382239382239</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02127659574468085</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1574468085106383</v>
+        <v>0.1698841698841699</v>
       </c>
       <c r="R6">
-        <v>0.1063829787234043</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="S6">
-        <v>0.374468085106383</v>
+        <v>0.3745173745173745</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1290322580645161</v>
+        <v>0.1350210970464135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02304147465437788</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.05907172995780591</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09677419354838709</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009216589861751152</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1797235023041475</v>
+        <v>0.1856540084388186</v>
       </c>
       <c r="R7">
-        <v>0.06912442396313365</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.4219409282700422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09473684210526316</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01052631578947368</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08842105263157894</v>
+        <v>0.09215686274509804</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1073684210526316</v>
+        <v>0.1098039215686274</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03368421052631579</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1789473684210526</v>
+        <v>0.1745098039215686</v>
       </c>
       <c r="R8">
-        <v>0.09263157894736843</v>
+        <v>0.09019607843137255</v>
       </c>
       <c r="S8">
-        <v>0.3936842105263158</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08298755186721991</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008298755186721992</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="E9">
-        <v>0.004149377593360996</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="F9">
-        <v>0.06224066390041494</v>
+        <v>0.05791505791505792</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1369294605809129</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01659751037344398</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1203319502074689</v>
+        <v>0.1158301158301158</v>
       </c>
       <c r="R9">
-        <v>0.1286307053941909</v>
+        <v>0.1235521235521236</v>
       </c>
       <c r="S9">
-        <v>0.4398340248962656</v>
+        <v>0.4633204633204633</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1121558092679651</v>
+        <v>0.1088807785888078</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01611820013431833</v>
+        <v>0.01642335766423358</v>
       </c>
       <c r="E10">
-        <v>0.000671591672263264</v>
+        <v>0.0006082725060827251</v>
       </c>
       <c r="F10">
-        <v>0.06917394224311618</v>
+        <v>0.07116788321167883</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1175285426460712</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02149093351242445</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.216252518468771</v>
+        <v>0.2141119221411192</v>
       </c>
       <c r="R10">
-        <v>0.09738079247817327</v>
+        <v>0.09610705596107055</v>
       </c>
       <c r="S10">
-        <v>0.3492276695768973</v>
+        <v>0.3515815085158151</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1299435028248588</v>
+        <v>0.1343669250645995</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1101694915254237</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="K11">
-        <v>0.2090395480225989</v>
+        <v>0.2144702842377261</v>
       </c>
       <c r="L11">
-        <v>0.5423728813559322</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008474576271186441</v>
+        <v>0.007751937984496124</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7216494845360825</v>
+        <v>0.7129186602870813</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1958762886597938</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="K12">
-        <v>0.005154639175257732</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="L12">
-        <v>0.02061855670103093</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05670103092783505</v>
+        <v>0.06220095693779904</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02040816326530612</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2244897959183673</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01702127659574468</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1361702127659574</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="I15">
-        <v>0.09361702127659574</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J15">
-        <v>0.3617021276595745</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="K15">
-        <v>0.03829787234042553</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00425531914893617</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05531914893617021</v>
+        <v>0.05038759689922481</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2936170212765957</v>
+        <v>0.3062015503875969</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01020408163265306</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1275510204081633</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="I16">
-        <v>0.1173469387755102</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="J16">
-        <v>0.4489795918367347</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K16">
-        <v>0.09693877551020408</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01530612244897959</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03061224489795918</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1530612244897959</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005928853754940711</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2055335968379447</v>
+        <v>0.1967509025270758</v>
       </c>
       <c r="I17">
-        <v>0.08893280632411067</v>
+        <v>0.09386281588447654</v>
       </c>
       <c r="J17">
-        <v>0.41699604743083</v>
+        <v>0.4205776173285198</v>
       </c>
       <c r="K17">
-        <v>0.09288537549407115</v>
+        <v>0.09025270758122744</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01778656126482214</v>
+        <v>0.01985559566787004</v>
       </c>
       <c r="N17">
-        <v>0.001976284584980237</v>
+        <v>0.001805054151624549</v>
       </c>
       <c r="O17">
-        <v>0.06719367588932806</v>
+        <v>0.0631768953068592</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1027667984189723</v>
+        <v>0.1064981949458484</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.003846153846153846</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1769230769230769</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="I18">
-        <v>0.1269230769230769</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="J18">
-        <v>0.45</v>
+        <v>0.4568345323741007</v>
       </c>
       <c r="K18">
-        <v>0.06538461538461539</v>
+        <v>0.06115107913669065</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.003846153846153846</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04230769230769231</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1307692307692308</v>
+        <v>0.1258992805755396</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008241758241758242</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1868131868131868</v>
+        <v>0.1860902255639098</v>
       </c>
       <c r="I19">
-        <v>0.08447802197802198</v>
+        <v>0.08270676691729323</v>
       </c>
       <c r="J19">
-        <v>0.3928571428571428</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="K19">
-        <v>0.1236263736263736</v>
+        <v>0.1234335839598997</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02472527472527472</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N19">
-        <v>0.001373626373626374</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="O19">
-        <v>0.0570054945054945</v>
+        <v>0.05889724310776942</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1208791208791209</v>
+        <v>0.1171679197994987</v>
       </c>
     </row>
   </sheetData>
